--- a/jpcore-r4/feature/swg3-OrganizationExtensionCoding/CodeSystem-jp-medication-substitution-not-allowed-reason-cs.xlsx
+++ b/jpcore-r4/feature/swg3-OrganizationExtensionCoding/CodeSystem-jp-medication-substitution-not-allowed-reason-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core Medication Substitution Not Allowed Reason Code</t>
+    <t>JP Core Medication Substitution Not Allowed Reason CodeSystem</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T10:42:30+00:00</t>
+    <t>2022-08-30T07:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,31 +120,40 @@
     <t>Count</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>変更可</t>
+  </si>
+  <si>
+    <t>後発品変更不可</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>剤形変更不可</t>
+  </si>
+  <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>後発品変更不可</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>剤形変更不可</t>
   </si>
   <si>
     <t>含量規格変更不可</t>
@@ -460,7 +469,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -485,10 +494,10 @@
         <v>40</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -497,7 +506,7 @@
         <v>40</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>43</v>
@@ -509,12 +518,24 @@
         <v>40</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
